--- a/v9/HP_assay/HP16/sample_layout.xlsx
+++ b/v9/HP_assay/HP16/sample_layout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wayne/Documents/Programming/vscode/template-processing/v9/HP_assay/HP16/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D229A911-1CEF-1B48-AF36-863B3C81515B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B636DBCB-D0D1-8848-B7FD-768944C76DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="121">
   <si>
     <t>experiment_ID</t>
   </si>
@@ -401,9 +401,6 @@
   </si>
   <si>
     <t>V3P1-60090</t>
-  </si>
-  <si>
-    <t>hide</t>
   </si>
   <si>
     <t>ID</t>
@@ -839,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="U20" sqref="U20:U23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -863,7 +860,7 @@
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2084,7 +2081,7 @@
         <v>39</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="3" t="s">
@@ -2096,9 +2093,7 @@
       <c r="I20" s="6">
         <v>1</v>
       </c>
-      <c r="J20" s="2">
-        <v>8</v>
-      </c>
+      <c r="J20" s="2"/>
       <c r="K20" s="6">
         <v>200</v>
       </c>
@@ -2108,18 +2103,10 @@
       <c r="M20" s="6">
         <v>50</v>
       </c>
-      <c r="N20" s="10">
-        <v>2000</v>
-      </c>
-      <c r="O20" s="10">
-        <v>2000</v>
-      </c>
-      <c r="P20" s="10">
-        <v>1990</v>
-      </c>
-      <c r="Q20" s="10">
-        <v>1990</v>
-      </c>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
       <c r="R20" s="2" t="s">
         <v>28</v>
       </c>
@@ -2127,15 +2114,13 @@
       <c r="T20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="U20" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="U20" s="2"/>
       <c r="V20" s="7">
         <v>45222</v>
       </c>
       <c r="W20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>HP16-19,HP16-20231023,TGFBS231012,sample,hide,,TGFBS231012,45197,1,8,200,2,50,2000,2000,1990,1990,RT,,TGFBS,PET723-100116,10-23-2023</v>
+        <v>HP16-19,HP16-20231023,TGFBS231012,sample,liquid,,TGFBS231012,45197,1,,200,2,50,,,,,RT,,TGFBS,,10-23-2023</v>
       </c>
       <c r="X20" s="8" t="str">
         <f t="shared" si="1"/>
@@ -2159,7 +2144,7 @@
         <v>39</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="3" t="s">
@@ -2171,9 +2156,7 @@
       <c r="I21" s="6">
         <v>2</v>
       </c>
-      <c r="J21" s="2">
-        <v>8</v>
-      </c>
+      <c r="J21" s="2"/>
       <c r="K21" s="6">
         <v>200</v>
       </c>
@@ -2183,18 +2166,10 @@
       <c r="M21" s="6">
         <v>50</v>
       </c>
-      <c r="N21" s="10">
-        <v>2000</v>
-      </c>
-      <c r="O21" s="10">
-        <v>2000</v>
-      </c>
-      <c r="P21" s="10">
-        <v>1990</v>
-      </c>
-      <c r="Q21" s="10">
-        <v>1990</v>
-      </c>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
       <c r="R21" s="2" t="s">
         <v>28</v>
       </c>
@@ -2202,15 +2177,13 @@
       <c r="T21" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="U21" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="U21" s="2"/>
       <c r="V21" s="7">
         <v>45222</v>
       </c>
       <c r="W21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>HP16-20,HP16-20231023,TGFBS231012,sample,hide,,TGFBS231012,45197,2,8,200,2,50,2000,2000,1990,1990,RT,,TGFBS,PET723-100116,10-23-2023</v>
+        <v>HP16-20,HP16-20231023,TGFBS231012,sample,liquid,,TGFBS231012,45197,2,,200,2,50,,,,,RT,,TGFBS,,10-23-2023</v>
       </c>
       <c r="X21" s="8" t="str">
         <f t="shared" si="1"/>
@@ -2234,7 +2207,7 @@
         <v>39</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="3" t="s">
@@ -2246,9 +2219,7 @@
       <c r="I22" s="6">
         <v>3</v>
       </c>
-      <c r="J22" s="2">
-        <v>8</v>
-      </c>
+      <c r="J22" s="2"/>
       <c r="K22" s="6">
         <v>200</v>
       </c>
@@ -2258,18 +2229,10 @@
       <c r="M22" s="6">
         <v>50</v>
       </c>
-      <c r="N22" s="10">
-        <v>2000</v>
-      </c>
-      <c r="O22" s="10">
-        <v>2000</v>
-      </c>
-      <c r="P22" s="10">
-        <v>1990</v>
-      </c>
-      <c r="Q22" s="10">
-        <v>1990</v>
-      </c>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
       <c r="R22" s="2" t="s">
         <v>28</v>
       </c>
@@ -2277,15 +2240,13 @@
       <c r="T22" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="U22" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="U22" s="2"/>
       <c r="V22" s="7">
         <v>45222</v>
       </c>
       <c r="W22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>HP16-21,HP16-20231023,TGFBS231012,sample,hide,,TGFBS231012,45197,3,8,200,2,50,2000,2000,1990,1990,RT,,TGFBS,PET723-100116,10-23-2023</v>
+        <v>HP16-21,HP16-20231023,TGFBS231012,sample,liquid,,TGFBS231012,45197,3,,200,2,50,,,,,RT,,TGFBS,,10-23-2023</v>
       </c>
       <c r="X22" s="8" t="str">
         <f t="shared" si="1"/>
@@ -2309,7 +2270,7 @@
         <v>39</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="3" t="s">
@@ -2321,9 +2282,7 @@
       <c r="I23" s="6">
         <v>4</v>
       </c>
-      <c r="J23" s="2">
-        <v>8</v>
-      </c>
+      <c r="J23" s="2"/>
       <c r="K23" s="6">
         <v>200</v>
       </c>
@@ -2333,18 +2292,10 @@
       <c r="M23" s="6">
         <v>50</v>
       </c>
-      <c r="N23" s="10">
-        <v>2000</v>
-      </c>
-      <c r="O23" s="10">
-        <v>2000</v>
-      </c>
-      <c r="P23" s="10">
-        <v>1990</v>
-      </c>
-      <c r="Q23" s="10">
-        <v>1990</v>
-      </c>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
       <c r="R23" s="2" t="s">
         <v>28</v>
       </c>
@@ -2352,15 +2303,13 @@
       <c r="T23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="U23" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="U23" s="2"/>
       <c r="V23" s="7">
         <v>45222</v>
       </c>
       <c r="W23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>HP16-22,HP16-20231023,TGFBS231012,sample,hide,,TGFBS231012,45197,4,8,200,2,50,2000,2000,1990,1990,RT,,TGFBS,PET723-100116,10-23-2023</v>
+        <v>HP16-22,HP16-20231023,TGFBS231012,sample,liquid,,TGFBS231012,45197,4,,200,2,50,,,,,RT,,TGFBS,,10-23-2023</v>
       </c>
       <c r="X23" s="8" t="str">
         <f t="shared" si="1"/>
@@ -5088,7 +5037,7 @@
       </c>
       <c r="E5" s="8" t="str">
         <f>Samples!W20</f>
-        <v>HP16-19,HP16-20231023,TGFBS231012,sample,hide,,TGFBS231012,45197,1,8,200,2,50,2000,2000,1990,1990,RT,,TGFBS,PET723-100116,10-23-2023</v>
+        <v>HP16-19,HP16-20231023,TGFBS231012,sample,liquid,,TGFBS231012,45197,1,,200,2,50,,,,,RT,,TGFBS,,10-23-2023</v>
       </c>
       <c r="F5" s="8" t="str">
         <f>Samples!W26</f>
@@ -5135,7 +5084,7 @@
       </c>
       <c r="E6" s="8" t="str">
         <f>Samples!W21</f>
-        <v>HP16-20,HP16-20231023,TGFBS231012,sample,hide,,TGFBS231012,45197,2,8,200,2,50,2000,2000,1990,1990,RT,,TGFBS,PET723-100116,10-23-2023</v>
+        <v>HP16-20,HP16-20231023,TGFBS231012,sample,liquid,,TGFBS231012,45197,2,,200,2,50,,,,,RT,,TGFBS,,10-23-2023</v>
       </c>
       <c r="F6" s="8" t="str">
         <f>Samples!W27</f>
@@ -5182,7 +5131,7 @@
       </c>
       <c r="E7" s="8" t="str">
         <f>Samples!W22</f>
-        <v>HP16-21,HP16-20231023,TGFBS231012,sample,hide,,TGFBS231012,45197,3,8,200,2,50,2000,2000,1990,1990,RT,,TGFBS,PET723-100116,10-23-2023</v>
+        <v>HP16-21,HP16-20231023,TGFBS231012,sample,liquid,,TGFBS231012,45197,3,,200,2,50,,,,,RT,,TGFBS,,10-23-2023</v>
       </c>
       <c r="F7" s="8" t="str">
         <f>Samples!W28</f>
@@ -5229,7 +5178,7 @@
       </c>
       <c r="E8" s="8" t="str">
         <f>Samples!W23</f>
-        <v>HP16-22,HP16-20231023,TGFBS231012,sample,hide,,TGFBS231012,45197,4,8,200,2,50,2000,2000,1990,1990,RT,,TGFBS,PET723-100116,10-23-2023</v>
+        <v>HP16-22,HP16-20231023,TGFBS231012,sample,liquid,,TGFBS231012,45197,4,,200,2,50,,,,,RT,,TGFBS,,10-23-2023</v>
       </c>
       <c r="F8" s="8" t="str">
         <f>Samples!W29</f>
@@ -5852,15 +5801,15 @@
       </c>
       <c r="H6" s="16" t="str">
         <f>Samples!W20</f>
-        <v>HP16-19,HP16-20231023,TGFBS231012,sample,hide,,TGFBS231012,45197,1,8,200,2,50,2000,2000,1990,1990,RT,,TGFBS,PET723-100116,10-23-2023</v>
+        <v>HP16-19,HP16-20231023,TGFBS231012,sample,liquid,,TGFBS231012,45197,1,,200,2,50,,,,,RT,,TGFBS,,10-23-2023</v>
       </c>
       <c r="I6" s="16" t="str">
         <f>Samples!W21</f>
-        <v>HP16-20,HP16-20231023,TGFBS231012,sample,hide,,TGFBS231012,45197,2,8,200,2,50,2000,2000,1990,1990,RT,,TGFBS,PET723-100116,10-23-2023</v>
+        <v>HP16-20,HP16-20231023,TGFBS231012,sample,liquid,,TGFBS231012,45197,2,,200,2,50,,,,,RT,,TGFBS,,10-23-2023</v>
       </c>
       <c r="J6" s="16" t="str">
         <f>Samples!W22</f>
-        <v>HP16-21,HP16-20231023,TGFBS231012,sample,hide,,TGFBS231012,45197,3,8,200,2,50,2000,2000,1990,1990,RT,,TGFBS,PET723-100116,10-23-2023</v>
+        <v>HP16-21,HP16-20231023,TGFBS231012,sample,liquid,,TGFBS231012,45197,3,,200,2,50,,,,,RT,,TGFBS,,10-23-2023</v>
       </c>
       <c r="K6" s="17" t="str">
         <f>Samples!W24</f>
@@ -5905,15 +5854,15 @@
       </c>
       <c r="H7" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>HP16-19,HP16-20231023,TGFBS231012,sample,hide,,TGFBS231012,45197,1,8,200,2,50,2000,2000,1990,1990,RT,,TGFBS,PET723-100116,10-23-2023</v>
+        <v>HP16-19,HP16-20231023,TGFBS231012,sample,liquid,,TGFBS231012,45197,1,,200,2,50,,,,,RT,,TGFBS,,10-23-2023</v>
       </c>
       <c r="I7" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>HP16-20,HP16-20231023,TGFBS231012,sample,hide,,TGFBS231012,45197,2,8,200,2,50,2000,2000,1990,1990,RT,,TGFBS,PET723-100116,10-23-2023</v>
+        <v>HP16-20,HP16-20231023,TGFBS231012,sample,liquid,,TGFBS231012,45197,2,,200,2,50,,,,,RT,,TGFBS,,10-23-2023</v>
       </c>
       <c r="J7" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>HP16-21,HP16-20231023,TGFBS231012,sample,hide,,TGFBS231012,45197,3,8,200,2,50,2000,2000,1990,1990,RT,,TGFBS,PET723-100116,10-23-2023</v>
+        <v>HP16-21,HP16-20231023,TGFBS231012,sample,liquid,,TGFBS231012,45197,3,,200,2,50,,,,,RT,,TGFBS,,10-23-2023</v>
       </c>
       <c r="K7" s="17" t="str">
         <f t="shared" si="3"/>
@@ -5958,15 +5907,15 @@
       </c>
       <c r="H8" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>HP16-19,HP16-20231023,TGFBS231012,sample,hide,,TGFBS231012,45197,1,8,200,2,50,2000,2000,1990,1990,RT,,TGFBS,PET723-100116,10-23-2023</v>
+        <v>HP16-19,HP16-20231023,TGFBS231012,sample,liquid,,TGFBS231012,45197,1,,200,2,50,,,,,RT,,TGFBS,,10-23-2023</v>
       </c>
       <c r="I8" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>HP16-20,HP16-20231023,TGFBS231012,sample,hide,,TGFBS231012,45197,2,8,200,2,50,2000,2000,1990,1990,RT,,TGFBS,PET723-100116,10-23-2023</v>
+        <v>HP16-20,HP16-20231023,TGFBS231012,sample,liquid,,TGFBS231012,45197,2,,200,2,50,,,,,RT,,TGFBS,,10-23-2023</v>
       </c>
       <c r="J8" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>HP16-21,HP16-20231023,TGFBS231012,sample,hide,,TGFBS231012,45197,3,8,200,2,50,2000,2000,1990,1990,RT,,TGFBS,PET723-100116,10-23-2023</v>
+        <v>HP16-21,HP16-20231023,TGFBS231012,sample,liquid,,TGFBS231012,45197,3,,200,2,50,,,,,RT,,TGFBS,,10-23-2023</v>
       </c>
       <c r="K8" s="16" t="str">
         <f>Samples!W27</f>
@@ -6011,15 +5960,15 @@
       </c>
       <c r="H9" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>HP16-19,HP16-20231023,TGFBS231012,sample,hide,,TGFBS231012,45197,1,8,200,2,50,2000,2000,1990,1990,RT,,TGFBS,PET723-100116,10-23-2023</v>
+        <v>HP16-19,HP16-20231023,TGFBS231012,sample,liquid,,TGFBS231012,45197,1,,200,2,50,,,,,RT,,TGFBS,,10-23-2023</v>
       </c>
       <c r="I9" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>HP16-20,HP16-20231023,TGFBS231012,sample,hide,,TGFBS231012,45197,2,8,200,2,50,2000,2000,1990,1990,RT,,TGFBS,PET723-100116,10-23-2023</v>
+        <v>HP16-20,HP16-20231023,TGFBS231012,sample,liquid,,TGFBS231012,45197,2,,200,2,50,,,,,RT,,TGFBS,,10-23-2023</v>
       </c>
       <c r="J9" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>HP16-21,HP16-20231023,TGFBS231012,sample,hide,,TGFBS231012,45197,3,8,200,2,50,2000,2000,1990,1990,RT,,TGFBS,PET723-100116,10-23-2023</v>
+        <v>HP16-21,HP16-20231023,TGFBS231012,sample,liquid,,TGFBS231012,45197,3,,200,2,50,,,,,RT,,TGFBS,,10-23-2023</v>
       </c>
       <c r="K9" s="16" t="str">
         <f t="shared" si="5"/>
